--- a/data/pca/factorExposure/factorExposure_2013-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0005759285842932879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001917320071863648</v>
+      </c>
+      <c r="C2">
+        <v>0.03345545994638288</v>
+      </c>
+      <c r="D2">
+        <v>0.006767069704607559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002065730050125457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006027262357288266</v>
+      </c>
+      <c r="C4">
+        <v>0.08488106788679371</v>
+      </c>
+      <c r="D4">
+        <v>0.07807215854709589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6.250347013384998e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01317229397522955</v>
+      </c>
+      <c r="C6">
+        <v>0.1076917473699389</v>
+      </c>
+      <c r="D6">
+        <v>0.03521945885709999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002265071659347229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004762297425718958</v>
+      </c>
+      <c r="C7">
+        <v>0.05401533879060731</v>
+      </c>
+      <c r="D7">
+        <v>0.03472862687184185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.001004654346026634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005614819022101308</v>
+      </c>
+      <c r="C8">
+        <v>0.0371784428982482</v>
+      </c>
+      <c r="D8">
+        <v>0.03906840589007898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005478841065445149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00402842544171728</v>
+      </c>
+      <c r="C9">
+        <v>0.07033332042996304</v>
+      </c>
+      <c r="D9">
+        <v>0.07139570691560916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002872482278598778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005575925399654368</v>
+      </c>
+      <c r="C10">
+        <v>0.07298892601380655</v>
+      </c>
+      <c r="D10">
+        <v>-0.2135996062903689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003670134995332924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005173186157836843</v>
+      </c>
+      <c r="C11">
+        <v>0.07829170370168544</v>
+      </c>
+      <c r="D11">
+        <v>0.06548075299365022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002217501426146219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003983159942445319</v>
+      </c>
+      <c r="C12">
+        <v>0.0640582003329032</v>
+      </c>
+      <c r="D12">
+        <v>0.04755103949092498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002782560196482993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008589078838811272</v>
+      </c>
+      <c r="C13">
+        <v>0.06947298486362204</v>
+      </c>
+      <c r="D13">
+        <v>0.06376189757337129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002284317319517006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001481309545104718</v>
+      </c>
+      <c r="C14">
+        <v>0.04618757333464115</v>
+      </c>
+      <c r="D14">
+        <v>0.01401074221243945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002439096604969237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005874202378057974</v>
+      </c>
+      <c r="C15">
+        <v>0.03937343483315206</v>
+      </c>
+      <c r="D15">
+        <v>0.03302343490838727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001941815780875748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004848730452792097</v>
+      </c>
+      <c r="C16">
+        <v>0.06476668808678558</v>
+      </c>
+      <c r="D16">
+        <v>0.05010365011819243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004410423203570761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008909573732276296</v>
+      </c>
+      <c r="C20">
+        <v>0.06495687144328478</v>
+      </c>
+      <c r="D20">
+        <v>0.0555761555839328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.006018871720158859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009870800851506932</v>
+      </c>
+      <c r="C21">
+        <v>0.02302812783779269</v>
+      </c>
+      <c r="D21">
+        <v>0.03475704952383851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01675390061598256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006825638746547088</v>
+      </c>
+      <c r="C22">
+        <v>0.09288502398067802</v>
+      </c>
+      <c r="D22">
+        <v>0.1024204729909906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01709301604035873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006637802663765773</v>
+      </c>
+      <c r="C23">
+        <v>0.09375494271574568</v>
+      </c>
+      <c r="D23">
+        <v>0.1027600899690002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002745050845938018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004814007571127684</v>
+      </c>
+      <c r="C24">
+        <v>0.07319905848944909</v>
+      </c>
+      <c r="D24">
+        <v>0.06202869485908363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00463980659314232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00267872358066553</v>
+      </c>
+      <c r="C25">
+        <v>0.07734325832490137</v>
+      </c>
+      <c r="D25">
+        <v>0.06682808899613928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00653448773427374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00354326159707982</v>
+      </c>
+      <c r="C26">
+        <v>0.04055585766526216</v>
+      </c>
+      <c r="D26">
+        <v>0.02923096033288012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.006906254995258346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005264153809504094</v>
+      </c>
+      <c r="C28">
+        <v>0.1220007369508566</v>
+      </c>
+      <c r="D28">
+        <v>-0.3108549185722516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002078256197301088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003194491324459702</v>
+      </c>
+      <c r="C29">
+        <v>0.04867134668467116</v>
+      </c>
+      <c r="D29">
+        <v>0.01314485038943024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004296333912181441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008671344751894506</v>
+      </c>
+      <c r="C30">
+        <v>0.1381425901870472</v>
+      </c>
+      <c r="D30">
+        <v>0.1073352506863415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0003463808340256217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00606507195408632</v>
+      </c>
+      <c r="C31">
+        <v>0.04596084234466126</v>
+      </c>
+      <c r="D31">
+        <v>0.03115220614407452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.001031995586368786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004078626470067812</v>
+      </c>
+      <c r="C32">
+        <v>0.04078468294567268</v>
+      </c>
+      <c r="D32">
+        <v>0.01665093494710544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003771648510201795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00772648728370771</v>
+      </c>
+      <c r="C33">
+        <v>0.08325925925284335</v>
+      </c>
+      <c r="D33">
+        <v>0.07581280638708232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004972884271745531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003742526629944936</v>
+      </c>
+      <c r="C34">
+        <v>0.05779495797309706</v>
+      </c>
+      <c r="D34">
+        <v>0.04784764136997539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002846642019989067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00484078924882837</v>
+      </c>
+      <c r="C35">
+        <v>0.03903640088095062</v>
+      </c>
+      <c r="D35">
+        <v>0.01324716065125217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004847662000711573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001390636167172072</v>
+      </c>
+      <c r="C36">
+        <v>0.02385290486049854</v>
+      </c>
+      <c r="D36">
+        <v>0.02291764224666326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00148817881698596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.00924605279330213</v>
+      </c>
+      <c r="C38">
+        <v>0.03256741590621179</v>
+      </c>
+      <c r="D38">
+        <v>0.01954831958066115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01295071342020352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009909232320126486</v>
+      </c>
+      <c r="C39">
+        <v>0.1156621940421773</v>
+      </c>
+      <c r="D39">
+        <v>0.08480682293340307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.007908014627930551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002185531937231829</v>
+      </c>
+      <c r="C40">
+        <v>0.0872540804831138</v>
+      </c>
+      <c r="D40">
+        <v>0.02057354491981732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0005221569567391955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007345158452476277</v>
+      </c>
+      <c r="C41">
+        <v>0.03931757427371057</v>
+      </c>
+      <c r="D41">
+        <v>0.03468815108660413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003368940007336913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003489353440723432</v>
+      </c>
+      <c r="C43">
+        <v>0.05056336672472815</v>
+      </c>
+      <c r="D43">
+        <v>0.02575901407817382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002849512401516449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003465335740991854</v>
+      </c>
+      <c r="C44">
+        <v>0.1085870095044969</v>
+      </c>
+      <c r="D44">
+        <v>0.08439662414542873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002541187724116727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00227974308643033</v>
+      </c>
+      <c r="C46">
+        <v>0.03468122492606309</v>
+      </c>
+      <c r="D46">
+        <v>0.03073092389544509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004929016887548194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002649694123343814</v>
+      </c>
+      <c r="C47">
+        <v>0.03857359577830634</v>
+      </c>
+      <c r="D47">
+        <v>0.02306055016146881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004046174369856877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006317372913100183</v>
+      </c>
+      <c r="C48">
+        <v>0.028334723230807</v>
+      </c>
+      <c r="D48">
+        <v>0.03329803064959241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01241369758387596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0141153666302085</v>
+      </c>
+      <c r="C49">
+        <v>0.1723756153113365</v>
+      </c>
+      <c r="D49">
+        <v>0.02858402881263256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0008546482311692789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003553418146659642</v>
+      </c>
+      <c r="C50">
+        <v>0.0429461690864698</v>
+      </c>
+      <c r="D50">
+        <v>0.03582215912162509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001940063283194009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004239576586516469</v>
+      </c>
+      <c r="C51">
+        <v>0.02044327228471597</v>
+      </c>
+      <c r="D51">
+        <v>0.03237880370298668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0004710267286418481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02007467660338513</v>
+      </c>
+      <c r="C53">
+        <v>0.1660295992930334</v>
+      </c>
+      <c r="D53">
+        <v>0.04688636471868311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0002341104618227849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008598718071546522</v>
+      </c>
+      <c r="C54">
+        <v>0.05539737457624644</v>
+      </c>
+      <c r="D54">
+        <v>0.04245304463814453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004209191318059092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009126458054848775</v>
+      </c>
+      <c r="C55">
+        <v>0.1062330584867727</v>
+      </c>
+      <c r="D55">
+        <v>0.05219232680076231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002793515287006995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01935475157422216</v>
+      </c>
+      <c r="C56">
+        <v>0.1725396725311342</v>
+      </c>
+      <c r="D56">
+        <v>0.04489573547453096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008221115809538861</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01930145695881847</v>
+      </c>
+      <c r="C58">
+        <v>0.1038086375720105</v>
+      </c>
+      <c r="D58">
+        <v>0.06913567085999774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008744444812939478</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009472922413163878</v>
+      </c>
+      <c r="C59">
+        <v>0.167043711502045</v>
+      </c>
+      <c r="D59">
+        <v>-0.2858430037850495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005680748744291985</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02310297506376272</v>
+      </c>
+      <c r="C60">
+        <v>0.2216119453211976</v>
+      </c>
+      <c r="D60">
+        <v>0.0295104512497353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01435518446831238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002011121082381054</v>
+      </c>
+      <c r="C61">
+        <v>0.09497286515637615</v>
+      </c>
+      <c r="D61">
+        <v>0.06212533619847151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.178299422187642</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1436508878965504</v>
+      </c>
+      <c r="C62">
+        <v>0.07969272318059818</v>
+      </c>
+      <c r="D62">
+        <v>0.05531068950678788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001945795913845439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006333165000161897</v>
+      </c>
+      <c r="C63">
+        <v>0.05974562206043429</v>
+      </c>
+      <c r="D63">
+        <v>0.02469736181401966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005615489489108996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0146645295493358</v>
+      </c>
+      <c r="C64">
+        <v>0.1021768620445899</v>
+      </c>
+      <c r="D64">
+        <v>0.06536116871461572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0007795848868143418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01682760195496528</v>
+      </c>
+      <c r="C65">
+        <v>0.1150612169385309</v>
+      </c>
+      <c r="D65">
+        <v>0.02556021584590999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008688199014535027</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01220329406098516</v>
+      </c>
+      <c r="C66">
+        <v>0.1548189149511834</v>
+      </c>
+      <c r="D66">
+        <v>0.1216241716319991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002729722448557934</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01535546378418258</v>
+      </c>
+      <c r="C67">
+        <v>0.06267033473745244</v>
+      </c>
+      <c r="D67">
+        <v>0.0301289694984383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008763142997746916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.00110132461543323</v>
+      </c>
+      <c r="C68">
+        <v>0.1036036874994793</v>
+      </c>
+      <c r="D68">
+        <v>-0.2593803958850543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002953333963178185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005846776598829631</v>
+      </c>
+      <c r="C69">
+        <v>0.04834758492635329</v>
+      </c>
+      <c r="D69">
+        <v>0.04287434069505696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001752128632807274</v>
+      </c>
+      <c r="C70">
+        <v>0.002198537831746965</v>
+      </c>
+      <c r="D70">
+        <v>0.002160936406089477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004894507775654227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006045521730007975</v>
+      </c>
+      <c r="C71">
+        <v>0.1074178776662079</v>
+      </c>
+      <c r="D71">
+        <v>-0.2852026869432356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.007847961497972509</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01533400213383901</v>
+      </c>
+      <c r="C72">
+        <v>0.1492969289076378</v>
+      </c>
+      <c r="D72">
+        <v>0.02112861695905272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01089596967885371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02905803388300708</v>
+      </c>
+      <c r="C73">
+        <v>0.2811056156229406</v>
+      </c>
+      <c r="D73">
+        <v>0.04688121407913143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004395712183523764</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001265297422954182</v>
+      </c>
+      <c r="C74">
+        <v>0.1041182581186171</v>
+      </c>
+      <c r="D74">
+        <v>0.04474430998190013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.005511380313850209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01047812533308653</v>
+      </c>
+      <c r="C75">
+        <v>0.1321141784751248</v>
+      </c>
+      <c r="D75">
+        <v>0.02692205020550432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01174970862964255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02101807503006377</v>
+      </c>
+      <c r="C76">
+        <v>0.1476217248091617</v>
+      </c>
+      <c r="D76">
+        <v>0.07063493365047682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001947206550014585</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02403421171999381</v>
+      </c>
+      <c r="C77">
+        <v>0.1350032198678837</v>
+      </c>
+      <c r="D77">
+        <v>0.06550282406197315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0007873133248715277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01416174937063795</v>
+      </c>
+      <c r="C78">
+        <v>0.09280001356214863</v>
+      </c>
+      <c r="D78">
+        <v>0.06729739249212337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02654928479247178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03674329785921793</v>
+      </c>
+      <c r="C79">
+        <v>0.157277825747222</v>
+      </c>
+      <c r="D79">
+        <v>0.03169211406114306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004741797621388828</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01033283896896959</v>
+      </c>
+      <c r="C80">
+        <v>0.04110889538873273</v>
+      </c>
+      <c r="D80">
+        <v>0.03299531547825854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001744416902290798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01434107507029042</v>
+      </c>
+      <c r="C81">
+        <v>0.1232953694801516</v>
+      </c>
+      <c r="D81">
+        <v>0.05675183085947799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005776524198736553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01946952893212365</v>
+      </c>
+      <c r="C82">
+        <v>0.141844908181276</v>
+      </c>
+      <c r="D82">
+        <v>0.04478124594078952</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009211119983248417</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.00991624298535462</v>
+      </c>
+      <c r="C83">
+        <v>0.05678617028603086</v>
+      </c>
+      <c r="D83">
+        <v>0.04820354414952244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0135643070170518</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01166257869066405</v>
+      </c>
+      <c r="C84">
+        <v>0.03207960970484445</v>
+      </c>
+      <c r="D84">
+        <v>-0.003456682785117879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01460836227854045</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02777441207403095</v>
+      </c>
+      <c r="C85">
+        <v>0.1284617112124022</v>
+      </c>
+      <c r="D85">
+        <v>0.04926866639105312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00288750861578114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005416539162336404</v>
+      </c>
+      <c r="C86">
+        <v>0.05002256621888565</v>
+      </c>
+      <c r="D86">
+        <v>0.02026623660438247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007821854765023523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01011759590645759</v>
+      </c>
+      <c r="C87">
+        <v>0.1295289198074632</v>
+      </c>
+      <c r="D87">
+        <v>0.07684015639688346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01521140460057429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002894942506015468</v>
+      </c>
+      <c r="C88">
+        <v>0.0690530705935201</v>
+      </c>
+      <c r="D88">
+        <v>0.01489412472142643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01716270055202998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001085742700997964</v>
+      </c>
+      <c r="C89">
+        <v>0.1580523861489568</v>
+      </c>
+      <c r="D89">
+        <v>-0.3377620648385898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.005674084996899433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007299042287194839</v>
+      </c>
+      <c r="C90">
+        <v>0.1377725614282897</v>
+      </c>
+      <c r="D90">
+        <v>-0.3218540301106895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001349129548326289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01012457470510831</v>
+      </c>
+      <c r="C91">
+        <v>0.1051877866620448</v>
+      </c>
+      <c r="D91">
+        <v>0.01987650531989354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01424486597533281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.000616136097352546</v>
+      </c>
+      <c r="C92">
+        <v>0.1467317250444255</v>
+      </c>
+      <c r="D92">
+        <v>-0.3303913986700615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.003271965792489528</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005308583264617124</v>
+      </c>
+      <c r="C93">
+        <v>0.1216578256126176</v>
+      </c>
+      <c r="D93">
+        <v>-0.3150769176339822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004010255342953396</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.022106683776825</v>
+      </c>
+      <c r="C94">
+        <v>0.1559959791149285</v>
+      </c>
+      <c r="D94">
+        <v>0.03363917789422099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004906352230054962</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01601657745017473</v>
+      </c>
+      <c r="C95">
+        <v>0.1242771378811479</v>
+      </c>
+      <c r="D95">
+        <v>0.06555272955970992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.003489800804154146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03456629130533895</v>
+      </c>
+      <c r="C97">
+        <v>0.1798808398183611</v>
+      </c>
+      <c r="D97">
+        <v>0.03808430248930066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00707209300836762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03628336668912908</v>
+      </c>
+      <c r="C98">
+        <v>0.2534111333635951</v>
+      </c>
+      <c r="D98">
+        <v>0.046550430138773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9816630602093772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9827965732646271</v>
+      </c>
+      <c r="C99">
+        <v>-0.109730543632814</v>
+      </c>
+      <c r="D99">
+        <v>-0.03106843334660776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002035090647479868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003238104812724875</v>
+      </c>
+      <c r="C101">
+        <v>0.04869443883396709</v>
+      </c>
+      <c r="D101">
+        <v>0.0135492088113847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
